--- a/input/Lewis_reviewed2.xlsx
+++ b/input/Lewis_reviewed2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F94F989E-8A07-47D7-9F28-345A2C12DA4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{923E1901-E889-4629-BE23-A4B5312816E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F6156C-62B6-41D6-A83F-DB3B092D7E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_review2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>family</t>
   </si>
@@ -142,403 +142,157 @@
     <t>canonicalName</t>
   </si>
   <si>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Ceratophyllinae</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>hirundinis</t>
+  </si>
+  <si>
+    <t>(Curtis)</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Siphonaptera</t>
+  </si>
+  <si>
+    <t>(Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Xenopsyllinae</t>
+  </si>
+  <si>
+    <t>Xenopsylla</t>
+  </si>
+  <si>
+    <t>skrjabini</t>
+  </si>
+  <si>
+    <t>Ioff</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>Lewis1327</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Dugès, 1832</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
     <t>Ctenophthalmidae</t>
   </si>
   <si>
-    <t>Rhadinopsyllinae</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla</t>
-  </si>
-  <si>
-    <t>semenovi</t>
-  </si>
-  <si>
-    <t>Argyropulo</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla semenovi Argyropulo, 1941</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla semenovi Argyropulo, 1946</t>
-  </si>
-  <si>
-    <t>Animalia</t>
-  </si>
-  <si>
-    <t>Arthropoda</t>
-  </si>
-  <si>
-    <t>Insecta</t>
-  </si>
-  <si>
-    <t>Siphonaptera</t>
-  </si>
-  <si>
-    <t>Argyropulo, 1946</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>Rhadinopsylla semenovi</t>
-  </si>
-  <si>
-    <t>Ceratophyllidae</t>
-  </si>
-  <si>
-    <t>Ceratophyllinae</t>
-  </si>
-  <si>
-    <t>Thrassis</t>
-  </si>
-  <si>
-    <t>acamantis</t>
+    <t>Neopsyllinae</t>
+  </si>
+  <si>
+    <t>grandis</t>
   </si>
   <si>
     <t>(Rothschild)</t>
   </si>
   <si>
-    <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
-  </si>
-  <si>
-    <t>Thrassis acamantis (Rothschild, 1905)</t>
-  </si>
-  <si>
-    <t>(Rothschild, 1905)</t>
-  </si>
-  <si>
-    <t>Thrassis acamantis</t>
-  </si>
-  <si>
-    <t>Ischnopsyllidae</t>
-  </si>
-  <si>
-    <t>Ischnopsyllinae</t>
-  </si>
-  <si>
-    <t>hexactenus</t>
-  </si>
-  <si>
-    <t>(Kolenati)</t>
-  </si>
-  <si>
-    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Lewis1210</t>
-  </si>
-  <si>
-    <t>synonym</t>
-  </si>
-  <si>
-    <t>Ceratophyllus</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>(Baker)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
-  </si>
-  <si>
-    <t>Lewis1858</t>
-  </si>
-  <si>
-    <t>Oropsylla montana (Baker, 1895)</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
-  </si>
-  <si>
-    <t>Spilopsyllinae</t>
-  </si>
-  <si>
-    <t>Acediopsylla</t>
-  </si>
-  <si>
-    <t>simplex</t>
-  </si>
-  <si>
-    <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
-  </si>
-  <si>
-    <t>Lewis2405</t>
-  </si>
-  <si>
-    <t>Acediopsylla Ewing, 1940</t>
-  </si>
-  <si>
-    <t>Ewing, 1940</t>
-  </si>
-  <si>
-    <t>Cediopsylla</t>
-  </si>
-  <si>
-    <t>Cediopsylla Jordan, 1925</t>
-  </si>
-  <si>
-    <t>Jordan, 1925</t>
-  </si>
-  <si>
-    <t>monedulae</t>
-  </si>
-  <si>
-    <t>Ceratophyllus monedulae</t>
-  </si>
-  <si>
-    <t>subspecies</t>
-  </si>
-  <si>
-    <t>Pulex</t>
-  </si>
-  <si>
-    <t>vespertilionis</t>
-  </si>
-  <si>
-    <t>Pulex vespertilionis</t>
-  </si>
-  <si>
-    <t>Pulex vespertilionis Dugès, 1832</t>
-  </si>
-  <si>
-    <t>Dugès, 1832</t>
-  </si>
-  <si>
-    <t>gallinulae gallinulae</t>
-  </si>
-  <si>
-    <t>(Dale)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus arvenis Dale, 1878; Ceratophyllus atricapillae Dale, 1878; Ceratophyllus caudati Dale 1878; Ceratophyllus cinereae Dale, 1878; Ceratophyllus citrinellae Dale, 1878; Ceratophyllus garruli Dale, 1878; Ceratophyllus merulae Dale, 1878; Ceratophyllus monedulae Dale, 1878; Ceratophyllus newsteadi Rothschild, 1901; Ceratophyllus pyrrhulae Dale, 1878; Ceratophyllus trochili Dale, 1878; Ceratophyllus viscivora Dale, 1878; Dasypsyllus gallinulae zilianus Peus, 1954</t>
-  </si>
-  <si>
-    <t>Lewis848</t>
-  </si>
-  <si>
-    <t>Ceratophyllus monedulae Dale, 1878</t>
-  </si>
-  <si>
-    <t>Dasypsyllus gallinulae gallinulae (Dale, 1878)</t>
-  </si>
-  <si>
-    <t>Dale, 1878</t>
-  </si>
-  <si>
-    <t>hirundinis</t>
-  </si>
-  <si>
-    <t>(Curtis)</t>
-  </si>
-  <si>
-    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
-  </si>
-  <si>
-    <t>(Curtis, 1826)</t>
-  </si>
-  <si>
-    <t>Ceratophyllus hirundinis</t>
-  </si>
-  <si>
-    <t>Xenopsyllinae</t>
-  </si>
-  <si>
-    <t>Xenopsylla</t>
-  </si>
-  <si>
-    <t>skrjabini</t>
-  </si>
-  <si>
-    <t>Ioff</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini Ioff, 1930</t>
-  </si>
-  <si>
-    <t>Ioff, 1930</t>
-  </si>
-  <si>
-    <t>Xenopsylla skrjabini</t>
-  </si>
-  <si>
-    <t>Leptopsyllidae</t>
-  </si>
-  <si>
-    <t>Leptopsyllinae</t>
-  </si>
-  <si>
-    <t>segnis</t>
-  </si>
-  <si>
-    <t>(Schönherr)</t>
-  </si>
-  <si>
-    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
-  </si>
-  <si>
-    <t>Pulex musculi Dugès, 1832</t>
-  </si>
-  <si>
-    <t>musculi</t>
-  </si>
-  <si>
-    <t>Pulex musculi</t>
-  </si>
-  <si>
-    <t>junior homonym</t>
-  </si>
-  <si>
-    <t>Ctenophthalminae</t>
-  </si>
-  <si>
-    <t>Oropsylla</t>
-  </si>
-  <si>
-    <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
-  </si>
-  <si>
-    <t>mandarina</t>
-  </si>
-  <si>
-    <t>Oropsylla montana mandarina</t>
-  </si>
-  <si>
-    <t>Palaeopsylla</t>
-  </si>
-  <si>
-    <t>aporema</t>
-  </si>
-  <si>
-    <t>Smit &amp; Rosicky</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
-  </si>
-  <si>
-    <t>Lewis1881</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis Brelih, 1975</t>
-  </si>
-  <si>
-    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
-  </si>
-  <si>
-    <t>makaluensis</t>
-  </si>
-  <si>
-    <t>Brelih, 1975</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Palaeopsylla makaluensis</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Archaeopsyllinae</t>
-  </si>
-  <si>
-    <t>canis</t>
-  </si>
-  <si>
-    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
-  </si>
-  <si>
-    <t>Lewis516</t>
-  </si>
-  <si>
-    <t>Pulex canis Curtis, 1826</t>
-  </si>
-  <si>
-    <t>Ctenocephalides canis (Curtis, 1926)</t>
-  </si>
-  <si>
-    <t>Curtis, 1826</t>
-  </si>
-  <si>
-    <t>Pulex canis</t>
-  </si>
-  <si>
-    <t>Leptopsylla segnis (Schönherr, 1811)</t>
-  </si>
-  <si>
-    <t>Pygiopsyllidae</t>
-  </si>
-  <si>
-    <t>Pygiopsylla</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>congrua</t>
-  </si>
-  <si>
-    <t>Jordan &amp; Rothschild, 1922</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua</t>
-  </si>
-  <si>
-    <t>zethi</t>
-  </si>
-  <si>
-    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (male)</t>
-  </si>
-  <si>
-    <t>Lewis2260</t>
-  </si>
-  <si>
-    <t>Pygiopsylla zethi (Rothschild, 1904)</t>
-  </si>
-  <si>
-    <t>Spalacopsylla</t>
-  </si>
-  <si>
-    <t>junior synonym</t>
-  </si>
-  <si>
-    <t>Ctenophthalmus Kolenati, 1856</t>
-  </si>
-  <si>
-    <t>Westwood</t>
-  </si>
-  <si>
-    <t>Ceratopsylla Wagner, 1988??; Spalacopsylla Oudemans, 1906 (junior synonym)Nychopsyllus Eysell, 1913; Nycteridiphilis K. Dalla Torre, 1914; Hirtopsylla Argyropulo, 1948 (unrecognized subgenus)</t>
-  </si>
-  <si>
-    <t>Lewis1233</t>
-  </si>
-  <si>
-    <t>Spalacopsylla Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
-  </si>
-  <si>
-    <t>Oudemans, 1906 Nychopsyllus Eysell, 1913</t>
-  </si>
-  <si>
-    <t>doubtful</t>
+    <t>Neopsylla striata Stewart, 1926; Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Lewis2514</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Tamiophila grandis (Rothschild, 1902)</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1372,12 +1126,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="40" max="40" width="21.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1503,867 +1260,490 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F2">
-        <v>1895</v>
+        <v>1826</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
       </c>
       <c r="I2">
-        <v>2999</v>
+        <v>337</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>47</v>
       </c>
       <c r="AF2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>47</v>
       </c>
       <c r="AH2" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>47</v>
       </c>
       <c r="AK2" t="s">
-        <v>170</v>
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>47</v>
       </c>
       <c r="AN2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
       </c>
       <c r="I3">
-        <v>3232</v>
+        <v>3236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
       </c>
       <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
+      <c r="AE3" t="s">
+        <v>47</v>
       </c>
       <c r="AF3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
       </c>
       <c r="AH3" t="s">
         <v>87</v>
       </c>
+      <c r="AI3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>47</v>
+      </c>
       <c r="AK3" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4">
-        <v>337</v>
+        <v>2893</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="S4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>47</v>
       </c>
       <c r="AD4" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>47</v>
       </c>
       <c r="AF4" t="s">
         <v>3</v>
       </c>
+      <c r="AG4" t="s">
+        <v>47</v>
+      </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>47</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
       </c>
       <c r="AN4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>1878</v>
+        <v>1930</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5">
-        <v>3386</v>
+        <v>2710</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>47</v>
       </c>
       <c r="AD5" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>47</v>
       </c>
       <c r="AF5" t="s">
         <v>3</v>
       </c>
+      <c r="AG5" t="s">
+        <v>47</v>
+      </c>
       <c r="AH5" t="s">
-        <v>102</v>
+        <v>63</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>47</v>
       </c>
       <c r="AK5" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>47</v>
       </c>
       <c r="AN5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6">
-        <v>1895</v>
-      </c>
-      <c r="G6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6">
-        <v>3216</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7">
-        <v>1976</v>
-      </c>
-      <c r="G7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7">
-        <v>2952</v>
-      </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" t="s">
-        <v>136</v>
-      </c>
-      <c r="S7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8">
-        <v>1926</v>
-      </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8">
-        <v>2841</v>
-      </c>
-      <c r="L8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>1811</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9">
-        <v>2893</v>
-      </c>
-      <c r="R9" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10">
-        <v>1856</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3367</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11">
-        <v>1904</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>2985</v>
-      </c>
-      <c r="L11" t="s">
-        <v>160</v>
-      </c>
-      <c r="R11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S11" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>1946</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12">
-        <v>2334</v>
-      </c>
-      <c r="R12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13">
-        <v>1833</v>
-      </c>
-      <c r="G13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13">
-        <v>3158</v>
-      </c>
-      <c r="L13" t="s">
-        <v>167</v>
-      </c>
-      <c r="R13" t="s">
-        <v>168</v>
-      </c>
-      <c r="S13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14">
-        <v>1905</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14">
-        <v>2533</v>
-      </c>
-      <c r="R14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15">
-        <v>1930</v>
-      </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15">
-        <v>2710</v>
-      </c>
-      <c r="R15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
